--- a/Stats/Statistics.xlsx
+++ b/Stats/Statistics.xlsx
@@ -1,34 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\PycharmProjects\Pain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\PycharmProjects\Pain\Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560C3EA6-162F-43E8-93C3-BA4DCDA45E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B107A38-87DB-4F06-B879-1D47236DF0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{30898942-D181-4398-8C06-282691AD810A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{30898942-D181-4398-8C06-282691AD810A}"/>
   </bookViews>
   <sheets>
     <sheet name="Gender &amp; Pain Threshold" sheetId="1" r:id="rId1"/>
     <sheet name="Gender &amp; Pain Rating" sheetId="2" r:id="rId2"/>
+    <sheet name="ERP Grouped" sheetId="4" r:id="rId3"/>
+    <sheet name="ERP by Subject" sheetId="5" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'ERP by Subject'!$A$1:$T$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Gender &amp; Pain Rating'!$A$1:$D$3061</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Gender &amp; Pain Threshold'!$C$1:$D$52</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'Gender &amp; Pain Threshold'!$F$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Gender &amp; Pain Threshold'!$F$2:$F$27</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Gender &amp; Pain Threshold'!$G$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Gender &amp; Pain Threshold'!$G$2:$G$27</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Gender &amp; Pain Threshold'!$F$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Gender &amp; Pain Threshold'!$F$2:$F$27</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Gender &amp; Pain Threshold'!$G$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Gender &amp; Pain Threshold'!$G$2:$G$27</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6211" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6335" uniqueCount="58">
   <si>
     <t>Subject</t>
   </si>
@@ -161,12 +163,75 @@
   <si>
     <t>High Stim</t>
   </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Med</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>N1 Lat</t>
+  </si>
+  <si>
+    <t>N2 Lat</t>
+  </si>
+  <si>
+    <t>P2 Lat</t>
+  </si>
+  <si>
+    <t>N1 Amp</t>
+  </si>
+  <si>
+    <t>N2 Amp</t>
+  </si>
+  <si>
+    <t>P2 Amp</t>
+  </si>
+  <si>
+    <t>Stimulus/S  1</t>
+  </si>
+  <si>
+    <t>Stimulus/S  2</t>
+  </si>
+  <si>
+    <t>Stimulus/S  3</t>
+  </si>
+  <si>
+    <t>N1_Lat</t>
+  </si>
+  <si>
+    <t>N1_Amp</t>
+  </si>
+  <si>
+    <t>N2_Lat</t>
+  </si>
+  <si>
+    <t>N2_Amp</t>
+  </si>
+  <si>
+    <t>P2_Lat</t>
+  </si>
+  <si>
+    <t>P2_Amp</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +241,14 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -223,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -233,11 +306,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -250,17 +354,1124 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gender Differences in PREP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Latencies</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ERP Grouped'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N1 Lat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'ERP Grouped'!$B$1:$G$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Med</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Med</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>High</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Male</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Female</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ERP Grouped'!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8366-4048-9A59-43451F99D41B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ERP Grouped'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N2 Lat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'ERP Grouped'!$B$1:$G$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Med</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Med</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>High</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Male</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Female</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ERP Grouped'!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8366-4048-9A59-43451F99D41B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ERP Grouped'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P2 Lat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'ERP Grouped'!$B$1:$G$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Med</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Med</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>High</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Male</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Female</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ERP Grouped'!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8366-4048-9A59-43451F99D41B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1435550575"/>
+        <c:axId val="1435550991"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1435550575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1435550991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1435550991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1435550575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gender Differences in PREP Amplitudes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ERP Grouped'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N1 Amp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'ERP Grouped'!$B$10:$G$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Med</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Med</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>High</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Male</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Female</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ERP Grouped'!$B$12:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.8540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9380000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.363</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0139999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E85-47BE-AE47-E61E0B46978F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ERP Grouped'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N2 Amp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'ERP Grouped'!$B$10:$G$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Med</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Med</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>High</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Male</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Female</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ERP Grouped'!$B$13:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8029999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5E85-47BE-AE47-E61E0B46978F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ERP Grouped'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P2 Amp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'ERP Grouped'!$B$10:$G$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Med</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>High</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Low</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Med</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>High</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Male</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Female</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ERP Grouped'!$B$14:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.8049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.742</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.073</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5E85-47BE-AE47-E61E0B46978F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1526114703"/>
+        <c:axId val="1526128015"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1526114703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1526128015"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1526128015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1526114703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -298,7 +1509,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CB9658D9-6F8E-429B-AB08-48CD2D2E5A6D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Male Pain Threshold</cx:v>
             </cx:txData>
           </cx:tx>
@@ -314,7 +1525,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D4464A74-6F3C-4E5A-BAFB-082C00AA6A27}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Female Pain Threshold</cx:v>
             </cx:txData>
           </cx:tx>
@@ -344,6 +1555,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -898,6 +2189,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -979,6 +3276,297 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{036FA315-D509-455B-BCCE-FD1D0EC8F004}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D2DAEA-1C88-430C-A3FA-0600739972A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Grouped"/>
+      <sheetName val="Seperated"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Male</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Female</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Low</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Med</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>High</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Low</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>Med</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>High</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>N1 Lat</v>
+          </cell>
+          <cell r="B3">
+            <v>160</v>
+          </cell>
+          <cell r="C3">
+            <v>156</v>
+          </cell>
+          <cell r="D3">
+            <v>152</v>
+          </cell>
+          <cell r="E3">
+            <v>152</v>
+          </cell>
+          <cell r="F3">
+            <v>164</v>
+          </cell>
+          <cell r="G3">
+            <v>152</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>N2 Lat</v>
+          </cell>
+          <cell r="B4">
+            <v>196</v>
+          </cell>
+          <cell r="C4">
+            <v>196</v>
+          </cell>
+          <cell r="D4">
+            <v>196</v>
+          </cell>
+          <cell r="E4">
+            <v>184</v>
+          </cell>
+          <cell r="F4">
+            <v>184</v>
+          </cell>
+          <cell r="G4">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>P2 Lat</v>
+          </cell>
+          <cell r="B5">
+            <v>316</v>
+          </cell>
+          <cell r="C5">
+            <v>320</v>
+          </cell>
+          <cell r="D5">
+            <v>320</v>
+          </cell>
+          <cell r="E5">
+            <v>292</v>
+          </cell>
+          <cell r="F5">
+            <v>292</v>
+          </cell>
+          <cell r="G5">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Male</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>Female</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>Low</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>Med</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>High</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>Low</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>Med</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v>High</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>N1 Amp</v>
+          </cell>
+          <cell r="B12">
+            <v>3.8540000000000001</v>
+          </cell>
+          <cell r="C12">
+            <v>4.0599999999999996</v>
+          </cell>
+          <cell r="D12">
+            <v>3.9380000000000002</v>
+          </cell>
+          <cell r="E12">
+            <v>2.331</v>
+          </cell>
+          <cell r="F12">
+            <v>3.363</v>
+          </cell>
+          <cell r="G12">
+            <v>3.0139999999999998</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>N2 Amp</v>
+          </cell>
+          <cell r="B13">
+            <v>5.76</v>
+          </cell>
+          <cell r="C13">
+            <v>6.4450000000000003</v>
+          </cell>
+          <cell r="D13">
+            <v>6.9020000000000001</v>
+          </cell>
+          <cell r="E13">
+            <v>3.7559999999999998</v>
+          </cell>
+          <cell r="F13">
+            <v>4.6989999999999998</v>
+          </cell>
+          <cell r="G13">
+            <v>4.8029999999999999</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>P2 Amp</v>
+          </cell>
+          <cell r="B14">
+            <v>4.8049999999999997</v>
+          </cell>
+          <cell r="C14">
+            <v>4.8819999999999997</v>
+          </cell>
+          <cell r="D14">
+            <v>5.742</v>
+          </cell>
+          <cell r="E14">
+            <v>3.073</v>
+          </cell>
+          <cell r="F14">
+            <v>4.3319999999999999</v>
+          </cell>
+          <cell r="G14">
+            <v>5.56</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1281,8 +3869,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2342,7 +4930,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I3061"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -81891,4 +84479,3600 @@
   <autoFilter ref="A1:D3061" xr:uid="{2C8225CB-8FB5-4E9A-B290-AE53E4E848C1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACAACE5-BB1B-4726-AC1A-D5CAE172C067}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>160</v>
+      </c>
+      <c r="C3">
+        <v>156</v>
+      </c>
+      <c r="D3">
+        <v>152</v>
+      </c>
+      <c r="E3">
+        <v>152</v>
+      </c>
+      <c r="F3">
+        <v>164</v>
+      </c>
+      <c r="G3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>196</v>
+      </c>
+      <c r="C4">
+        <v>196</v>
+      </c>
+      <c r="D4">
+        <v>196</v>
+      </c>
+      <c r="E4">
+        <v>184</v>
+      </c>
+      <c r="F4">
+        <v>184</v>
+      </c>
+      <c r="G4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>316</v>
+      </c>
+      <c r="C5">
+        <v>320</v>
+      </c>
+      <c r="D5">
+        <v>320</v>
+      </c>
+      <c r="E5">
+        <v>292</v>
+      </c>
+      <c r="F5">
+        <v>292</v>
+      </c>
+      <c r="G5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>-3.8540000000000001</v>
+      </c>
+      <c r="C6">
+        <v>-4.0599999999999996</v>
+      </c>
+      <c r="D6">
+        <v>-3.9380000000000002</v>
+      </c>
+      <c r="E6">
+        <v>-2.331</v>
+      </c>
+      <c r="F6">
+        <v>-3.363</v>
+      </c>
+      <c r="G6">
+        <v>-3.0139999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>-5.76</v>
+      </c>
+      <c r="C7">
+        <v>-6.4450000000000003</v>
+      </c>
+      <c r="D7">
+        <v>-6.9020000000000001</v>
+      </c>
+      <c r="E7">
+        <v>-3.7559999999999998</v>
+      </c>
+      <c r="F7">
+        <v>-4.6989999999999998</v>
+      </c>
+      <c r="G7">
+        <v>-4.8029999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>4.8049999999999997</v>
+      </c>
+      <c r="C8">
+        <v>4.8819999999999997</v>
+      </c>
+      <c r="D8">
+        <v>5.742</v>
+      </c>
+      <c r="E8">
+        <v>3.073</v>
+      </c>
+      <c r="F8">
+        <v>4.3319999999999999</v>
+      </c>
+      <c r="G8">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>3.8540000000000001</v>
+      </c>
+      <c r="C12">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="D12">
+        <v>3.9380000000000002</v>
+      </c>
+      <c r="E12">
+        <v>2.331</v>
+      </c>
+      <c r="F12">
+        <v>3.363</v>
+      </c>
+      <c r="G12">
+        <v>3.0139999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>5.76</v>
+      </c>
+      <c r="C13">
+        <v>6.4450000000000003</v>
+      </c>
+      <c r="D13">
+        <v>6.9020000000000001</v>
+      </c>
+      <c r="E13">
+        <v>3.7559999999999998</v>
+      </c>
+      <c r="F13">
+        <v>4.6989999999999998</v>
+      </c>
+      <c r="G13">
+        <v>4.8029999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>4.8049999999999997</v>
+      </c>
+      <c r="C14">
+        <v>4.8819999999999997</v>
+      </c>
+      <c r="D14">
+        <v>5.742</v>
+      </c>
+      <c r="E14">
+        <v>3.073</v>
+      </c>
+      <c r="F14">
+        <v>4.3319999999999999</v>
+      </c>
+      <c r="G14">
+        <v>5.56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401EBBD2-3936-4E70-BEF6-9C13203BA8BC}">
+  <dimension ref="A1:AB53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>151</v>
+      </c>
+      <c r="D3">
+        <v>0.72310974352320501</v>
+      </c>
+      <c r="E3">
+        <v>187</v>
+      </c>
+      <c r="F3">
+        <v>-0.25481169111017599</v>
+      </c>
+      <c r="G3">
+        <v>292</v>
+      </c>
+      <c r="H3">
+        <v>-0.699361505286348</v>
+      </c>
+      <c r="I3">
+        <v>167</v>
+      </c>
+      <c r="J3">
+        <v>-1.33297426660961</v>
+      </c>
+      <c r="K3">
+        <v>195</v>
+      </c>
+      <c r="L3">
+        <v>-4.1431641126322898</v>
+      </c>
+      <c r="M3">
+        <v>292</v>
+      </c>
+      <c r="N3">
+        <v>2.85157346612985</v>
+      </c>
+      <c r="O3">
+        <v>151</v>
+      </c>
+      <c r="P3">
+        <v>0.54166710466099199</v>
+      </c>
+      <c r="Q3">
+        <v>179</v>
+      </c>
+      <c r="R3">
+        <v>-5.55465479470302</v>
+      </c>
+      <c r="S3">
+        <v>312</v>
+      </c>
+      <c r="T3">
+        <v>3.2223065475467898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>163</v>
+      </c>
+      <c r="D4">
+        <v>-5.3315090285138904</v>
+      </c>
+      <c r="E4">
+        <v>199</v>
+      </c>
+      <c r="F4">
+        <v>-3.0009270228303202</v>
+      </c>
+      <c r="G4">
+        <v>320</v>
+      </c>
+      <c r="H4">
+        <v>4.07785635063893</v>
+      </c>
+      <c r="I4">
+        <v>151</v>
+      </c>
+      <c r="J4">
+        <v>-4.8771120072812799</v>
+      </c>
+      <c r="K4">
+        <v>187</v>
+      </c>
+      <c r="L4">
+        <v>-5.0609765623492002</v>
+      </c>
+      <c r="M4">
+        <v>320</v>
+      </c>
+      <c r="N4">
+        <v>5.3033608521412603</v>
+      </c>
+      <c r="O4">
+        <v>151</v>
+      </c>
+      <c r="P4">
+        <v>-5.2117223215506403</v>
+      </c>
+      <c r="Q4">
+        <v>179</v>
+      </c>
+      <c r="R4">
+        <v>-4.5566209430712599</v>
+      </c>
+      <c r="S4">
+        <v>320</v>
+      </c>
+      <c r="T4">
+        <v>4.7981229402688399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>167</v>
+      </c>
+      <c r="D5">
+        <v>-1.8855297057462299</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>292</v>
+      </c>
+      <c r="H5">
+        <v>1.392512078435</v>
+      </c>
+      <c r="I5">
+        <v>159</v>
+      </c>
+      <c r="J5">
+        <v>-1.37234447197384</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>292</v>
+      </c>
+      <c r="N5">
+        <v>1.3263513402004401</v>
+      </c>
+      <c r="O5">
+        <v>155</v>
+      </c>
+      <c r="P5">
+        <v>-1.89510853136585</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>292</v>
+      </c>
+      <c r="T5">
+        <v>1.0943922383659499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>179</v>
+      </c>
+      <c r="D6">
+        <v>-9.2482378561865897</v>
+      </c>
+      <c r="E6">
+        <v>207</v>
+      </c>
+      <c r="F6">
+        <v>-12.6524987723236</v>
+      </c>
+      <c r="G6">
+        <v>320</v>
+      </c>
+      <c r="H6">
+        <v>8.7953385469017409</v>
+      </c>
+      <c r="I6">
+        <v>179</v>
+      </c>
+      <c r="J6">
+        <v>-9.2850522976413394</v>
+      </c>
+      <c r="K6">
+        <v>207</v>
+      </c>
+      <c r="L6">
+        <v>-14.1174471514059</v>
+      </c>
+      <c r="M6">
+        <v>320</v>
+      </c>
+      <c r="N6">
+        <v>7.7722450969422301</v>
+      </c>
+      <c r="O6">
+        <v>171</v>
+      </c>
+      <c r="P6">
+        <v>-10.476194348897</v>
+      </c>
+      <c r="Q6">
+        <v>199</v>
+      </c>
+      <c r="R6">
+        <v>-18.2107375729504</v>
+      </c>
+      <c r="S6">
+        <v>316</v>
+      </c>
+      <c r="T6">
+        <v>10.8856887637347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>179</v>
+      </c>
+      <c r="D7">
+        <v>-6.3097829878757201</v>
+      </c>
+      <c r="E7">
+        <v>199</v>
+      </c>
+      <c r="F7">
+        <v>-9.36060500538753</v>
+      </c>
+      <c r="G7">
+        <v>320</v>
+      </c>
+      <c r="H7">
+        <v>-0.61406342000096104</v>
+      </c>
+      <c r="I7">
+        <v>179</v>
+      </c>
+      <c r="J7">
+        <v>-5.2480669338544201</v>
+      </c>
+      <c r="K7">
+        <v>191</v>
+      </c>
+      <c r="L7">
+        <v>-8.4183546741864195</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7">
+        <v>179</v>
+      </c>
+      <c r="P7">
+        <v>-9.5737176811956299</v>
+      </c>
+      <c r="Q7">
+        <v>199</v>
+      </c>
+      <c r="R7">
+        <v>-11.0140590980872</v>
+      </c>
+      <c r="S7">
+        <v>320</v>
+      </c>
+      <c r="T7">
+        <v>0.115858851408456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>159</v>
+      </c>
+      <c r="D8">
+        <v>-5.2148685059746498</v>
+      </c>
+      <c r="E8">
+        <v>207</v>
+      </c>
+      <c r="F8">
+        <v>-0.55848081908765501</v>
+      </c>
+      <c r="G8">
+        <v>312</v>
+      </c>
+      <c r="H8">
+        <v>1.91483836577762</v>
+      </c>
+      <c r="I8">
+        <v>159</v>
+      </c>
+      <c r="J8">
+        <v>-5.5335266255096798</v>
+      </c>
+      <c r="K8">
+        <v>207</v>
+      </c>
+      <c r="L8">
+        <v>-5.0528676392567498</v>
+      </c>
+      <c r="M8">
+        <v>292</v>
+      </c>
+      <c r="N8">
+        <v>3.2052785913547002</v>
+      </c>
+      <c r="O8">
+        <v>175</v>
+      </c>
+      <c r="P8">
+        <v>-3.4015600090654901</v>
+      </c>
+      <c r="Q8">
+        <v>203</v>
+      </c>
+      <c r="R8">
+        <v>-3.9325580312896</v>
+      </c>
+      <c r="S8">
+        <v>316</v>
+      </c>
+      <c r="T8">
+        <v>6.9938957784575102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>171</v>
+      </c>
+      <c r="D9">
+        <v>-2.1715235299653801</v>
+      </c>
+      <c r="E9">
+        <v>179</v>
+      </c>
+      <c r="F9">
+        <v>-4.3714385722376097</v>
+      </c>
+      <c r="G9">
+        <v>292</v>
+      </c>
+      <c r="H9">
+        <v>1.6916290144913999</v>
+      </c>
+      <c r="I9">
+        <v>159</v>
+      </c>
+      <c r="J9">
+        <v>-1.9119951899068699</v>
+      </c>
+      <c r="K9">
+        <v>179</v>
+      </c>
+      <c r="L9">
+        <v>-5.6674773579031799</v>
+      </c>
+      <c r="M9">
+        <v>292</v>
+      </c>
+      <c r="N9">
+        <v>1.25585190160674</v>
+      </c>
+      <c r="O9">
+        <v>151</v>
+      </c>
+      <c r="P9">
+        <v>-1.7387280651347199</v>
+      </c>
+      <c r="Q9">
+        <v>179</v>
+      </c>
+      <c r="R9">
+        <v>-8.9215728376308494</v>
+      </c>
+      <c r="S9">
+        <v>296</v>
+      </c>
+      <c r="T9">
+        <v>3.47163934366549</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>175</v>
+      </c>
+      <c r="D10">
+        <v>-1.3615897780791699</v>
+      </c>
+      <c r="E10">
+        <v>207</v>
+      </c>
+      <c r="F10">
+        <v>0.14304975674999301</v>
+      </c>
+      <c r="G10">
+        <v>292</v>
+      </c>
+      <c r="H10">
+        <v>-0.23083997422053301</v>
+      </c>
+      <c r="I10">
+        <v>155</v>
+      </c>
+      <c r="J10">
+        <v>-0.55966591215623396</v>
+      </c>
+      <c r="K10">
+        <v>207</v>
+      </c>
+      <c r="L10">
+        <v>-0.233659461926984</v>
+      </c>
+      <c r="M10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>179</v>
+      </c>
+      <c r="P10">
+        <v>-2.26467382299484</v>
+      </c>
+      <c r="Q10">
+        <v>199</v>
+      </c>
+      <c r="R10">
+        <v>-1.1402183441957501</v>
+      </c>
+      <c r="S10">
+        <v>308</v>
+      </c>
+      <c r="T10">
+        <v>-8.1373082303651798E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>151</v>
+      </c>
+      <c r="D11">
+        <v>-7.0250477283871504</v>
+      </c>
+      <c r="E11">
+        <v>191</v>
+      </c>
+      <c r="F11">
+        <v>-11.451578517612401</v>
+      </c>
+      <c r="G11">
+        <v>316</v>
+      </c>
+      <c r="H11">
+        <v>10.8017151813913</v>
+      </c>
+      <c r="I11">
+        <v>175</v>
+      </c>
+      <c r="J11">
+        <v>-8.9114669298227902</v>
+      </c>
+      <c r="K11">
+        <v>195</v>
+      </c>
+      <c r="L11">
+        <v>-11.3884960467644</v>
+      </c>
+      <c r="M11">
+        <v>308</v>
+      </c>
+      <c r="N11">
+        <v>11.845921208145599</v>
+      </c>
+      <c r="O11">
+        <v>151</v>
+      </c>
+      <c r="P11">
+        <v>-7.8809217845214796</v>
+      </c>
+      <c r="Q11">
+        <v>199</v>
+      </c>
+      <c r="R11">
+        <v>-12.719302729429099</v>
+      </c>
+      <c r="S11">
+        <v>320</v>
+      </c>
+      <c r="T11">
+        <v>9.7466077591197102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>179</v>
+      </c>
+      <c r="F12">
+        <v>-0.25152883693266398</v>
+      </c>
+      <c r="G12">
+        <v>320</v>
+      </c>
+      <c r="H12">
+        <v>0.78125831995546402</v>
+      </c>
+      <c r="I12">
+        <v>151</v>
+      </c>
+      <c r="J12">
+        <v>-1.0104536093972201</v>
+      </c>
+      <c r="K12">
+        <v>199</v>
+      </c>
+      <c r="L12">
+        <v>-2.0822425499895401</v>
+      </c>
+      <c r="M12">
+        <v>320</v>
+      </c>
+      <c r="N12">
+        <v>2.0013049179826399</v>
+      </c>
+      <c r="O12">
+        <v>179</v>
+      </c>
+      <c r="P12">
+        <v>-2.4555437402246998</v>
+      </c>
+      <c r="Q12">
+        <v>207</v>
+      </c>
+      <c r="R12">
+        <v>-1.29854679543114E-2</v>
+      </c>
+      <c r="S12">
+        <v>292</v>
+      </c>
+      <c r="T12">
+        <v>3.6441446255961698</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>151</v>
+      </c>
+      <c r="D13">
+        <v>-0.960163817134427</v>
+      </c>
+      <c r="E13">
+        <v>179</v>
+      </c>
+      <c r="F13">
+        <v>0.63222128300832603</v>
+      </c>
+      <c r="G13">
+        <v>312</v>
+      </c>
+      <c r="H13">
+        <v>3.0513069143330802</v>
+      </c>
+      <c r="I13">
+        <v>151</v>
+      </c>
+      <c r="J13">
+        <v>-1.6056002384707799</v>
+      </c>
+      <c r="K13">
+        <v>179</v>
+      </c>
+      <c r="L13">
+        <v>-1.4328869050998301</v>
+      </c>
+      <c r="M13">
+        <v>320</v>
+      </c>
+      <c r="N13">
+        <v>3.62655377774349</v>
+      </c>
+      <c r="O13">
+        <v>151</v>
+      </c>
+      <c r="P13">
+        <v>-1.17855450627312</v>
+      </c>
+      <c r="Q13">
+        <v>179</v>
+      </c>
+      <c r="R13">
+        <v>-3.26466979294243</v>
+      </c>
+      <c r="S13">
+        <v>316</v>
+      </c>
+      <c r="T13">
+        <v>6.7129603161284699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>179</v>
+      </c>
+      <c r="D14">
+        <v>-0.69743680615873804</v>
+      </c>
+      <c r="E14">
+        <v>191</v>
+      </c>
+      <c r="F14">
+        <v>-3.3691950870914198</v>
+      </c>
+      <c r="G14">
+        <v>300</v>
+      </c>
+      <c r="H14">
+        <v>5.3254416097119197</v>
+      </c>
+      <c r="I14">
+        <v>175</v>
+      </c>
+      <c r="J14">
+        <v>-3.0570197733862998</v>
+      </c>
+      <c r="K14">
+        <v>191</v>
+      </c>
+      <c r="L14">
+        <v>-5.0791623835123003</v>
+      </c>
+      <c r="M14">
+        <v>312</v>
+      </c>
+      <c r="N14">
+        <v>5.6462215446795803</v>
+      </c>
+      <c r="O14">
+        <v>175</v>
+      </c>
+      <c r="P14">
+        <v>-2.2142781889439398</v>
+      </c>
+      <c r="Q14">
+        <v>179</v>
+      </c>
+      <c r="R14">
+        <v>-4.5622925793313502</v>
+      </c>
+      <c r="S14">
+        <v>316</v>
+      </c>
+      <c r="T14">
+        <v>5.8896439321202196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>179</v>
+      </c>
+      <c r="D15">
+        <v>-3.9338517997139002</v>
+      </c>
+      <c r="E15">
+        <v>207</v>
+      </c>
+      <c r="F15">
+        <v>-1.97852828492176</v>
+      </c>
+      <c r="G15">
+        <v>292</v>
+      </c>
+      <c r="H15">
+        <v>2.7768758055278902</v>
+      </c>
+      <c r="I15">
+        <v>175</v>
+      </c>
+      <c r="J15">
+        <v>-5.3167037842266298</v>
+      </c>
+      <c r="K15">
+        <v>207</v>
+      </c>
+      <c r="L15">
+        <v>-7.6928762778790896</v>
+      </c>
+      <c r="M15">
+        <v>320</v>
+      </c>
+      <c r="N15">
+        <v>5.8014354515663404</v>
+      </c>
+      <c r="O15">
+        <v>171</v>
+      </c>
+      <c r="P15">
+        <v>-4.4833459179616</v>
+      </c>
+      <c r="Q15">
+        <v>195</v>
+      </c>
+      <c r="R15">
+        <v>-8.7562464399961595</v>
+      </c>
+      <c r="S15">
+        <v>316</v>
+      </c>
+      <c r="T15">
+        <v>6.9407784065449603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>159</v>
+      </c>
+      <c r="D16">
+        <v>-2.7872363090071901</v>
+      </c>
+      <c r="E16">
+        <v>207</v>
+      </c>
+      <c r="F16">
+        <v>-5.9497290106695502</v>
+      </c>
+      <c r="G16">
+        <v>320</v>
+      </c>
+      <c r="H16">
+        <v>4.8212245023770297</v>
+      </c>
+      <c r="I16">
+        <v>151</v>
+      </c>
+      <c r="J16">
+        <v>-2.8194896165242298</v>
+      </c>
+      <c r="K16">
+        <v>199</v>
+      </c>
+      <c r="L16">
+        <v>-2.7541500114442998</v>
+      </c>
+      <c r="M16">
+        <v>308</v>
+      </c>
+      <c r="N16">
+        <v>7.45338352539118</v>
+      </c>
+      <c r="O16">
+        <v>151</v>
+      </c>
+      <c r="P16">
+        <v>-1.93969468730195</v>
+      </c>
+      <c r="Q16">
+        <v>199</v>
+      </c>
+      <c r="R16">
+        <v>-6.8144272197413702</v>
+      </c>
+      <c r="S16">
+        <v>320</v>
+      </c>
+      <c r="T16">
+        <v>6.0911419621569296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>155</v>
+      </c>
+      <c r="D17">
+        <v>-3.5993248974399199</v>
+      </c>
+      <c r="E17">
+        <v>179</v>
+      </c>
+      <c r="F17">
+        <v>-2.49174027753859</v>
+      </c>
+      <c r="G17">
+        <v>308</v>
+      </c>
+      <c r="H17">
+        <v>0.70115922163347599</v>
+      </c>
+      <c r="I17">
+        <v>151</v>
+      </c>
+      <c r="J17">
+        <v>-6.32404746696833</v>
+      </c>
+      <c r="K17">
+        <v>179</v>
+      </c>
+      <c r="L17">
+        <v>-4.0883165632197001</v>
+      </c>
+      <c r="M17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17">
+        <v>155</v>
+      </c>
+      <c r="P17">
+        <v>-3.9332234185872901</v>
+      </c>
+      <c r="Q17">
+        <v>179</v>
+      </c>
+      <c r="R17">
+        <v>-5.2290078873988097</v>
+      </c>
+      <c r="S17">
+        <v>320</v>
+      </c>
+      <c r="T17">
+        <v>0.53660840986107095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>179</v>
+      </c>
+      <c r="D18">
+        <v>-0.58690174418819596</v>
+      </c>
+      <c r="E18">
+        <v>207</v>
+      </c>
+      <c r="F18">
+        <v>0.38646931656820599</v>
+      </c>
+      <c r="G18">
+        <v>292</v>
+      </c>
+      <c r="H18">
+        <v>1.8801860792559499</v>
+      </c>
+      <c r="I18">
+        <v>171</v>
+      </c>
+      <c r="J18">
+        <v>-4.5881196308050702</v>
+      </c>
+      <c r="K18">
+        <v>207</v>
+      </c>
+      <c r="L18">
+        <v>-2.59831226527709</v>
+      </c>
+      <c r="M18">
+        <v>320</v>
+      </c>
+      <c r="N18">
+        <v>3.9334226877131502</v>
+      </c>
+      <c r="O18">
+        <v>179</v>
+      </c>
+      <c r="P18">
+        <v>-4.5473767135646002</v>
+      </c>
+      <c r="Q18">
+        <v>207</v>
+      </c>
+      <c r="R18">
+        <v>-3.6778904381445598</v>
+      </c>
+      <c r="S18">
+        <v>320</v>
+      </c>
+      <c r="T18">
+        <v>7.9186429628556398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>175</v>
+      </c>
+      <c r="D19">
+        <v>-2.1102313002120501</v>
+      </c>
+      <c r="E19">
+        <v>199</v>
+      </c>
+      <c r="F19">
+        <v>-1.0378810934607701</v>
+      </c>
+      <c r="G19">
+        <v>304</v>
+      </c>
+      <c r="H19">
+        <v>2.27294236182337</v>
+      </c>
+      <c r="I19">
+        <v>171</v>
+      </c>
+      <c r="J19">
+        <v>-6.1227695212077897</v>
+      </c>
+      <c r="K19">
+        <v>203</v>
+      </c>
+      <c r="L19">
+        <v>-2.2699571122998798</v>
+      </c>
+      <c r="M19">
+        <v>320</v>
+      </c>
+      <c r="N19">
+        <v>2.2752450962194199</v>
+      </c>
+      <c r="O19">
+        <v>179</v>
+      </c>
+      <c r="P19">
+        <v>-2.51238801473102</v>
+      </c>
+      <c r="Q19">
+        <v>199</v>
+      </c>
+      <c r="R19">
+        <v>-2.2398325889605899</v>
+      </c>
+      <c r="S19">
+        <v>304</v>
+      </c>
+      <c r="T19">
+        <v>2.2775104623385101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>171</v>
+      </c>
+      <c r="D20">
+        <v>-4.3418940164789399</v>
+      </c>
+      <c r="E20">
+        <v>191</v>
+      </c>
+      <c r="F20">
+        <v>-5.2766306779658398</v>
+      </c>
+      <c r="G20">
+        <v>320</v>
+      </c>
+      <c r="H20">
+        <v>2.69675179775879</v>
+      </c>
+      <c r="I20">
+        <v>179</v>
+      </c>
+      <c r="J20">
+        <v>-2.8810679827189398</v>
+      </c>
+      <c r="K20">
+        <v>187</v>
+      </c>
+      <c r="L20">
+        <v>-5.3430370942399197</v>
+      </c>
+      <c r="M20">
+        <v>320</v>
+      </c>
+      <c r="N20">
+        <v>2.7498519698469099</v>
+      </c>
+      <c r="O20">
+        <v>179</v>
+      </c>
+      <c r="P20">
+        <v>-3.5807392275801302</v>
+      </c>
+      <c r="Q20">
+        <v>207</v>
+      </c>
+      <c r="R20">
+        <v>-4.35224755075303</v>
+      </c>
+      <c r="S20">
+        <v>320</v>
+      </c>
+      <c r="T20">
+        <v>3.51440503109297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>312</v>
+      </c>
+      <c r="H21">
+        <v>2.6508288731879301</v>
+      </c>
+      <c r="I21">
+        <v>179</v>
+      </c>
+      <c r="J21">
+        <v>-0.30081370844697403</v>
+      </c>
+      <c r="K21">
+        <v>207</v>
+      </c>
+      <c r="L21">
+        <v>1.32981481123154</v>
+      </c>
+      <c r="M21">
+        <v>316</v>
+      </c>
+      <c r="N21">
+        <v>4.8821656971635203</v>
+      </c>
+      <c r="O21">
+        <v>179</v>
+      </c>
+      <c r="P21">
+        <v>-0.35831907927055301</v>
+      </c>
+      <c r="Q21">
+        <v>207</v>
+      </c>
+      <c r="R21">
+        <v>1.95861407023656</v>
+      </c>
+      <c r="S21">
+        <v>300</v>
+      </c>
+      <c r="T21">
+        <v>7.01316747290499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>167</v>
+      </c>
+      <c r="D22">
+        <v>-4.4475290102432501</v>
+      </c>
+      <c r="E22">
+        <v>183</v>
+      </c>
+      <c r="F22">
+        <v>-10.249010776070699</v>
+      </c>
+      <c r="G22">
+        <v>292</v>
+      </c>
+      <c r="H22">
+        <v>6.6831494410698697</v>
+      </c>
+      <c r="I22">
+        <v>179</v>
+      </c>
+      <c r="J22">
+        <v>-5.62687544790482</v>
+      </c>
+      <c r="K22">
+        <v>179</v>
+      </c>
+      <c r="L22">
+        <v>-8.3765427998295596</v>
+      </c>
+      <c r="M22">
+        <v>292</v>
+      </c>
+      <c r="N22">
+        <v>6.9201045779163</v>
+      </c>
+      <c r="O22">
+        <v>175</v>
+      </c>
+      <c r="P22">
+        <v>-5.1775196076582297</v>
+      </c>
+      <c r="Q22">
+        <v>179</v>
+      </c>
+      <c r="R22">
+        <v>-7.8488864678963601</v>
+      </c>
+      <c r="S22">
+        <v>292</v>
+      </c>
+      <c r="T22">
+        <v>5.8243988114566401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>151</v>
+      </c>
+      <c r="D23">
+        <v>-1.56297920261162</v>
+      </c>
+      <c r="E23">
+        <v>199</v>
+      </c>
+      <c r="F23">
+        <v>-5.82497877659201</v>
+      </c>
+      <c r="G23">
+        <v>292</v>
+      </c>
+      <c r="H23">
+        <v>4.6657820385590796</v>
+      </c>
+      <c r="I23">
+        <v>151</v>
+      </c>
+      <c r="J23">
+        <v>-6.3233442337448195E-2</v>
+      </c>
+      <c r="K23">
+        <v>179</v>
+      </c>
+      <c r="L23">
+        <v>-6.0027729620133101</v>
+      </c>
+      <c r="M23">
+        <v>316</v>
+      </c>
+      <c r="N23">
+        <v>4.9272548121322703</v>
+      </c>
+      <c r="O23">
+        <v>151</v>
+      </c>
+      <c r="P23">
+        <v>-0.57281216422807202</v>
+      </c>
+      <c r="Q23">
+        <v>179</v>
+      </c>
+      <c r="R23">
+        <v>-3.2073751574154201</v>
+      </c>
+      <c r="S23">
+        <v>292</v>
+      </c>
+      <c r="T23">
+        <v>5.3443328920893602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>151</v>
+      </c>
+      <c r="D24">
+        <v>-2.7452155940896898</v>
+      </c>
+      <c r="E24">
+        <v>203</v>
+      </c>
+      <c r="F24">
+        <v>-7.7946307657581304</v>
+      </c>
+      <c r="G24">
+        <v>320</v>
+      </c>
+      <c r="H24">
+        <v>4.7973394206159696</v>
+      </c>
+      <c r="I24">
+        <v>151</v>
+      </c>
+      <c r="J24">
+        <v>0.25432248999868601</v>
+      </c>
+      <c r="K24">
+        <v>191</v>
+      </c>
+      <c r="L24">
+        <v>-9.1936444902117103</v>
+      </c>
+      <c r="M24">
+        <v>292</v>
+      </c>
+      <c r="N24">
+        <v>7.8147816952291604</v>
+      </c>
+      <c r="O24">
+        <v>151</v>
+      </c>
+      <c r="P24">
+        <v>-0.506911124581223</v>
+      </c>
+      <c r="Q24">
+        <v>207</v>
+      </c>
+      <c r="R24">
+        <v>-7.2712838830012698</v>
+      </c>
+      <c r="S24">
+        <v>300</v>
+      </c>
+      <c r="T24">
+        <v>6.2723455275048501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>151</v>
+      </c>
+      <c r="D25">
+        <v>-1.9766885666082299</v>
+      </c>
+      <c r="E25">
+        <v>187</v>
+      </c>
+      <c r="F25">
+        <v>-0.48119901474739502</v>
+      </c>
+      <c r="G25">
+        <v>320</v>
+      </c>
+      <c r="H25">
+        <v>-0.95767777453580205</v>
+      </c>
+      <c r="I25">
+        <v>159</v>
+      </c>
+      <c r="J25">
+        <v>-1.2366941241455101</v>
+      </c>
+      <c r="K25">
+        <v>203</v>
+      </c>
+      <c r="L25">
+        <v>-2.6186281271085998</v>
+      </c>
+      <c r="M25">
+        <v>292</v>
+      </c>
+      <c r="N25">
+        <v>2.7742621770065998</v>
+      </c>
+      <c r="O25">
+        <v>167</v>
+      </c>
+      <c r="P25">
+        <v>-1.5765497032356901</v>
+      </c>
+      <c r="Q25">
+        <v>187</v>
+      </c>
+      <c r="R25">
+        <v>-1.82553122357762</v>
+      </c>
+      <c r="S25" t="s">
+        <v>10</v>
+      </c>
+      <c r="T25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>151</v>
+      </c>
+      <c r="D26">
+        <v>0.27986348880051398</v>
+      </c>
+      <c r="E26">
+        <v>179</v>
+      </c>
+      <c r="F26">
+        <v>-3.1140374036664502</v>
+      </c>
+      <c r="G26">
+        <v>320</v>
+      </c>
+      <c r="H26">
+        <v>1.66819612822944</v>
+      </c>
+      <c r="I26">
+        <v>151</v>
+      </c>
+      <c r="J26">
+        <v>-1.1806917301195501</v>
+      </c>
+      <c r="K26">
+        <v>179</v>
+      </c>
+      <c r="L26">
+        <v>-1.5105548898354999</v>
+      </c>
+      <c r="M26">
+        <v>320</v>
+      </c>
+      <c r="N26">
+        <v>2.7335177281316598</v>
+      </c>
+      <c r="O26">
+        <v>151</v>
+      </c>
+      <c r="P26">
+        <v>-1.43818581997662</v>
+      </c>
+      <c r="Q26">
+        <v>187</v>
+      </c>
+      <c r="R26">
+        <v>-2.6571558897720302</v>
+      </c>
+      <c r="S26">
+        <v>296</v>
+      </c>
+      <c r="T26">
+        <v>6.4225954245887902</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>171</v>
+      </c>
+      <c r="D27">
+        <v>-4.6935189469710998</v>
+      </c>
+      <c r="E27">
+        <v>207</v>
+      </c>
+      <c r="F27">
+        <v>-2.7576678790148201</v>
+      </c>
+      <c r="G27">
+        <v>292</v>
+      </c>
+      <c r="H27">
+        <v>5.8826407327431101</v>
+      </c>
+      <c r="I27">
+        <v>159</v>
+      </c>
+      <c r="J27">
+        <v>-2.9413048617638</v>
+      </c>
+      <c r="K27">
+        <v>195</v>
+      </c>
+      <c r="L27">
+        <v>-3.0819141885869801</v>
+      </c>
+      <c r="M27">
+        <v>320</v>
+      </c>
+      <c r="N27">
+        <v>3.8908397401028201</v>
+      </c>
+      <c r="O27">
+        <v>175</v>
+      </c>
+      <c r="P27">
+        <v>-3.0893312905351902</v>
+      </c>
+      <c r="Q27">
+        <v>199</v>
+      </c>
+      <c r="R27">
+        <v>-6.1244746441756996</v>
+      </c>
+      <c r="S27">
+        <v>320</v>
+      </c>
+      <c r="T27">
+        <v>7.0183556305503298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>151</v>
+      </c>
+      <c r="D28">
+        <v>-5.2171175320148198</v>
+      </c>
+      <c r="E28">
+        <v>179</v>
+      </c>
+      <c r="F28">
+        <v>-8.5662940022527199</v>
+      </c>
+      <c r="G28">
+        <v>320</v>
+      </c>
+      <c r="H28">
+        <v>1.4597576200405999</v>
+      </c>
+      <c r="I28">
+        <v>151</v>
+      </c>
+      <c r="J28">
+        <v>-6.4446656993948501</v>
+      </c>
+      <c r="K28">
+        <v>183</v>
+      </c>
+      <c r="L28">
+        <v>-9.9324822366183003</v>
+      </c>
+      <c r="M28">
+        <v>292</v>
+      </c>
+      <c r="N28">
+        <v>3.3253648814315602</v>
+      </c>
+      <c r="O28">
+        <v>151</v>
+      </c>
+      <c r="P28">
+        <v>-3.8387633119558302</v>
+      </c>
+      <c r="Q28">
+        <v>179</v>
+      </c>
+      <c r="R28">
+        <v>-5.8324106113552796</v>
+      </c>
+      <c r="S28">
+        <v>300</v>
+      </c>
+      <c r="T28">
+        <v>4.5079730112777696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>175</v>
+      </c>
+      <c r="D29">
+        <v>-3.2664680907207702</v>
+      </c>
+      <c r="E29">
+        <v>207</v>
+      </c>
+      <c r="F29">
+        <v>-5.3720843920804198</v>
+      </c>
+      <c r="G29">
+        <v>320</v>
+      </c>
+      <c r="H29">
+        <v>6.6677905253466596</v>
+      </c>
+      <c r="I29">
+        <v>171</v>
+      </c>
+      <c r="J29">
+        <v>-4.3133290493538299</v>
+      </c>
+      <c r="K29">
+        <v>195</v>
+      </c>
+      <c r="L29">
+        <v>-5.6526816961995596</v>
+      </c>
+      <c r="M29">
+        <v>320</v>
+      </c>
+      <c r="N29">
+        <v>6.6839823271835801</v>
+      </c>
+      <c r="O29">
+        <v>171</v>
+      </c>
+      <c r="P29">
+        <v>-4.2549583975893501</v>
+      </c>
+      <c r="Q29">
+        <v>207</v>
+      </c>
+      <c r="R29">
+        <v>-6.1414042166365501</v>
+      </c>
+      <c r="S29">
+        <v>320</v>
+      </c>
+      <c r="T29">
+        <v>8.6474264833864698</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>163</v>
+      </c>
+      <c r="D30">
+        <v>-4.9218998976207899</v>
+      </c>
+      <c r="E30">
+        <v>179</v>
+      </c>
+      <c r="F30">
+        <v>-1.4138042086001801</v>
+      </c>
+      <c r="G30">
+        <v>292</v>
+      </c>
+      <c r="H30">
+        <v>5.27866962980141</v>
+      </c>
+      <c r="I30">
+        <v>163</v>
+      </c>
+      <c r="J30">
+        <v>-4.7978623859283198</v>
+      </c>
+      <c r="K30">
+        <v>179</v>
+      </c>
+      <c r="L30">
+        <v>-2.04195030313346</v>
+      </c>
+      <c r="M30">
+        <v>292</v>
+      </c>
+      <c r="N30">
+        <v>5.7758809465863301</v>
+      </c>
+      <c r="O30">
+        <v>159</v>
+      </c>
+      <c r="P30">
+        <v>-5.3915381319353299</v>
+      </c>
+      <c r="Q30">
+        <v>179</v>
+      </c>
+      <c r="R30">
+        <v>-0.46871367830394201</v>
+      </c>
+      <c r="S30">
+        <v>300</v>
+      </c>
+      <c r="T30">
+        <v>6.4613856163272398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>175</v>
+      </c>
+      <c r="D31">
+        <v>-4.1616919143286202</v>
+      </c>
+      <c r="E31">
+        <v>195</v>
+      </c>
+      <c r="F31">
+        <v>-9.7326163995274602</v>
+      </c>
+      <c r="G31">
+        <v>304</v>
+      </c>
+      <c r="H31">
+        <v>8.2715947025349301</v>
+      </c>
+      <c r="I31">
+        <v>171</v>
+      </c>
+      <c r="J31">
+        <v>-5.2218260377860801</v>
+      </c>
+      <c r="K31">
+        <v>199</v>
+      </c>
+      <c r="L31">
+        <v>-12.7358966137715</v>
+      </c>
+      <c r="M31">
+        <v>292</v>
+      </c>
+      <c r="N31">
+        <v>10.196140630551101</v>
+      </c>
+      <c r="O31">
+        <v>155</v>
+      </c>
+      <c r="P31">
+        <v>-4.9210907388310403</v>
+      </c>
+      <c r="Q31">
+        <v>191</v>
+      </c>
+      <c r="R31">
+        <v>-11.620077291385201</v>
+      </c>
+      <c r="S31">
+        <v>296</v>
+      </c>
+      <c r="T31">
+        <v>10.2150125753681</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>151</v>
+      </c>
+      <c r="D32">
+        <v>-3.5362951751734899</v>
+      </c>
+      <c r="E32">
+        <v>183</v>
+      </c>
+      <c r="F32">
+        <v>-8.1067264873615699</v>
+      </c>
+      <c r="G32">
+        <v>292</v>
+      </c>
+      <c r="H32">
+        <v>7.35334261604077</v>
+      </c>
+      <c r="I32">
+        <v>151</v>
+      </c>
+      <c r="J32">
+        <v>-0.49138547941603</v>
+      </c>
+      <c r="K32">
+        <v>179</v>
+      </c>
+      <c r="L32">
+        <v>-6.1786780085475304</v>
+      </c>
+      <c r="M32">
+        <v>292</v>
+      </c>
+      <c r="N32">
+        <v>11.7762132153892</v>
+      </c>
+      <c r="O32">
+        <v>151</v>
+      </c>
+      <c r="P32">
+        <v>-3.5873718396782599</v>
+      </c>
+      <c r="Q32">
+        <v>183</v>
+      </c>
+      <c r="R32">
+        <v>-6.3453204095409497</v>
+      </c>
+      <c r="S32">
+        <v>292</v>
+      </c>
+      <c r="T32">
+        <v>14.505578142446801</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>151</v>
+      </c>
+      <c r="D33">
+        <v>5.7016645535628803E-2</v>
+      </c>
+      <c r="E33">
+        <v>179</v>
+      </c>
+      <c r="F33">
+        <v>-1.5838486134962999</v>
+      </c>
+      <c r="G33">
+        <v>320</v>
+      </c>
+      <c r="H33">
+        <v>6.5048736934279496</v>
+      </c>
+      <c r="I33">
+        <v>167</v>
+      </c>
+      <c r="J33">
+        <v>-1.72209817125711</v>
+      </c>
+      <c r="K33">
+        <v>179</v>
+      </c>
+      <c r="L33">
+        <v>-1.00032181430455</v>
+      </c>
+      <c r="M33">
+        <v>296</v>
+      </c>
+      <c r="N33">
+        <v>5.7387112774209301</v>
+      </c>
+      <c r="O33">
+        <v>151</v>
+      </c>
+      <c r="P33">
+        <v>0.34521668386718601</v>
+      </c>
+      <c r="Q33">
+        <v>179</v>
+      </c>
+      <c r="R33">
+        <v>-0.27406160646319799</v>
+      </c>
+      <c r="S33">
+        <v>292</v>
+      </c>
+      <c r="T33">
+        <v>8.5205541427070699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>179</v>
+      </c>
+      <c r="F34">
+        <v>0.85459988377357499</v>
+      </c>
+      <c r="G34">
+        <v>292</v>
+      </c>
+      <c r="H34">
+        <v>4.0074788349095698</v>
+      </c>
+      <c r="I34">
+        <v>179</v>
+      </c>
+      <c r="J34">
+        <v>-1.26655449601681</v>
+      </c>
+      <c r="K34">
+        <v>179</v>
+      </c>
+      <c r="L34">
+        <v>-2.5685267584095302</v>
+      </c>
+      <c r="M34">
+        <v>300</v>
+      </c>
+      <c r="N34">
+        <v>7.7704266954453898</v>
+      </c>
+      <c r="O34">
+        <v>179</v>
+      </c>
+      <c r="P34">
+        <v>1.0738988546419601</v>
+      </c>
+      <c r="Q34">
+        <v>179</v>
+      </c>
+      <c r="R34">
+        <v>-3.1673781828803498</v>
+      </c>
+      <c r="S34">
+        <v>308</v>
+      </c>
+      <c r="T34">
+        <v>8.0859059985482293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>151</v>
+      </c>
+      <c r="D35">
+        <v>-0.58549043370083897</v>
+      </c>
+      <c r="E35">
+        <v>203</v>
+      </c>
+      <c r="F35">
+        <v>-4.0201481789490101</v>
+      </c>
+      <c r="G35">
+        <v>312</v>
+      </c>
+      <c r="H35">
+        <v>4.3770179803696196</v>
+      </c>
+      <c r="I35">
+        <v>167</v>
+      </c>
+      <c r="J35">
+        <v>-0.79116139435134902</v>
+      </c>
+      <c r="K35">
+        <v>203</v>
+      </c>
+      <c r="L35">
+        <v>-4.0742015747478399</v>
+      </c>
+      <c r="M35">
+        <v>320</v>
+      </c>
+      <c r="N35">
+        <v>5.8458377780776196</v>
+      </c>
+      <c r="O35">
+        <v>171</v>
+      </c>
+      <c r="P35">
+        <v>-2.2621361062128602</v>
+      </c>
+      <c r="Q35">
+        <v>199</v>
+      </c>
+      <c r="R35">
+        <v>-4.8193131935634996</v>
+      </c>
+      <c r="S35">
+        <v>292</v>
+      </c>
+      <c r="T35">
+        <v>6.37363769288838</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>151</v>
+      </c>
+      <c r="D36">
+        <v>-0.92040820313988403</v>
+      </c>
+      <c r="E36">
+        <v>179</v>
+      </c>
+      <c r="F36">
+        <v>-9.0724881442979992</v>
+      </c>
+      <c r="G36">
+        <v>292</v>
+      </c>
+      <c r="H36">
+        <v>9.0965212186546207</v>
+      </c>
+      <c r="I36">
+        <v>151</v>
+      </c>
+      <c r="J36">
+        <v>-1.1070228552157699</v>
+      </c>
+      <c r="K36">
+        <v>179</v>
+      </c>
+      <c r="L36">
+        <v>-10.9886098392987</v>
+      </c>
+      <c r="M36">
+        <v>292</v>
+      </c>
+      <c r="N36">
+        <v>9.1540678728595104</v>
+      </c>
+      <c r="O36">
+        <v>151</v>
+      </c>
+      <c r="P36">
+        <v>-1.1053520405235799</v>
+      </c>
+      <c r="Q36">
+        <v>179</v>
+      </c>
+      <c r="R36">
+        <v>-11.340428436201201</v>
+      </c>
+      <c r="S36">
+        <v>292</v>
+      </c>
+      <c r="T36">
+        <v>10.6509433205105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>179</v>
+      </c>
+      <c r="D37">
+        <v>-1.6818112557234799</v>
+      </c>
+      <c r="E37">
+        <v>199</v>
+      </c>
+      <c r="F37">
+        <v>-3.6831949201588401</v>
+      </c>
+      <c r="G37">
+        <v>292</v>
+      </c>
+      <c r="H37">
+        <v>1.2675336548473299</v>
+      </c>
+      <c r="I37">
+        <v>171</v>
+      </c>
+      <c r="J37">
+        <v>-0.87082702975496795</v>
+      </c>
+      <c r="K37">
+        <v>191</v>
+      </c>
+      <c r="L37">
+        <v>-3.7705907616620702</v>
+      </c>
+      <c r="M37">
+        <v>320</v>
+      </c>
+      <c r="N37">
+        <v>0.56719982013728998</v>
+      </c>
+      <c r="O37">
+        <v>179</v>
+      </c>
+      <c r="P37">
+        <v>-0.83667632413985704</v>
+      </c>
+      <c r="Q37">
+        <v>191</v>
+      </c>
+      <c r="R37">
+        <v>-3.0973885956379998</v>
+      </c>
+      <c r="S37">
+        <v>320</v>
+      </c>
+      <c r="T37">
+        <v>1.94175075289413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>151</v>
+      </c>
+      <c r="D38">
+        <v>-4.2530216073175104</v>
+      </c>
+      <c r="E38">
+        <v>179</v>
+      </c>
+      <c r="F38">
+        <v>-11.8638152075606</v>
+      </c>
+      <c r="G38">
+        <v>304</v>
+      </c>
+      <c r="H38">
+        <v>10.7116438300987</v>
+      </c>
+      <c r="I38">
+        <v>151</v>
+      </c>
+      <c r="J38">
+        <v>-4.3374378912706</v>
+      </c>
+      <c r="K38">
+        <v>179</v>
+      </c>
+      <c r="L38">
+        <v>-10.007543380854299</v>
+      </c>
+      <c r="M38">
+        <v>304</v>
+      </c>
+      <c r="N38">
+        <v>10.094347681893399</v>
+      </c>
+      <c r="O38">
+        <v>151</v>
+      </c>
+      <c r="P38">
+        <v>-1.8607763408870199</v>
+      </c>
+      <c r="Q38">
+        <v>179</v>
+      </c>
+      <c r="R38">
+        <v>-8.4314765866561494</v>
+      </c>
+      <c r="S38">
+        <v>292</v>
+      </c>
+      <c r="T38">
+        <v>11.8204328822781</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>151</v>
+      </c>
+      <c r="D39">
+        <v>-2.0537566224225099</v>
+      </c>
+      <c r="E39">
+        <v>199</v>
+      </c>
+      <c r="F39">
+        <v>-3.8463390655345102</v>
+      </c>
+      <c r="G39">
+        <v>320</v>
+      </c>
+      <c r="H39">
+        <v>1.37890717652455</v>
+      </c>
+      <c r="I39">
+        <v>179</v>
+      </c>
+      <c r="J39">
+        <v>-1.5963903600020299</v>
+      </c>
+      <c r="K39">
+        <v>207</v>
+      </c>
+      <c r="L39">
+        <v>-1.8522508307107399</v>
+      </c>
+      <c r="M39">
+        <v>300</v>
+      </c>
+      <c r="N39">
+        <v>0.80402651686499105</v>
+      </c>
+      <c r="O39">
+        <v>171</v>
+      </c>
+      <c r="P39">
+        <v>-3.1871464456749901</v>
+      </c>
+      <c r="Q39">
+        <v>207</v>
+      </c>
+      <c r="R39">
+        <v>-3.75556513156705</v>
+      </c>
+      <c r="S39">
+        <v>320</v>
+      </c>
+      <c r="T39">
+        <v>5.9981701581005398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>167</v>
+      </c>
+      <c r="D40">
+        <v>-2.2489519606510999</v>
+      </c>
+      <c r="E40">
+        <v>207</v>
+      </c>
+      <c r="F40">
+        <v>-2.7759619463044301</v>
+      </c>
+      <c r="G40">
+        <v>292</v>
+      </c>
+      <c r="H40">
+        <v>0.47306194092410903</v>
+      </c>
+      <c r="I40">
+        <v>163</v>
+      </c>
+      <c r="J40">
+        <v>-2.1769399267543501</v>
+      </c>
+      <c r="K40">
+        <v>191</v>
+      </c>
+      <c r="L40">
+        <v>-2.67021184008318</v>
+      </c>
+      <c r="M40">
+        <v>292</v>
+      </c>
+      <c r="N40">
+        <v>0.64496955366810305</v>
+      </c>
+      <c r="O40">
+        <v>163</v>
+      </c>
+      <c r="P40">
+        <v>-0.89038794023658596</v>
+      </c>
+      <c r="Q40">
+        <v>187</v>
+      </c>
+      <c r="R40">
+        <v>-3.35099165440585</v>
+      </c>
+      <c r="S40">
+        <v>320</v>
+      </c>
+      <c r="T40">
+        <v>0.605724332401954</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>175</v>
+      </c>
+      <c r="D41">
+        <v>-3.8868641096180099</v>
+      </c>
+      <c r="E41">
+        <v>207</v>
+      </c>
+      <c r="F41">
+        <v>-3.6340712231924899</v>
+      </c>
+      <c r="G41">
+        <v>308</v>
+      </c>
+      <c r="H41">
+        <v>12.2057205816582</v>
+      </c>
+      <c r="I41">
+        <v>159</v>
+      </c>
+      <c r="J41">
+        <v>-6.2722569747117696</v>
+      </c>
+      <c r="K41">
+        <v>207</v>
+      </c>
+      <c r="L41">
+        <v>-5.5095779051977303</v>
+      </c>
+      <c r="M41">
+        <v>320</v>
+      </c>
+      <c r="N41">
+        <v>9.8933114699075109</v>
+      </c>
+      <c r="O41">
+        <v>151</v>
+      </c>
+      <c r="P41">
+        <v>-3.8594681559251001</v>
+      </c>
+      <c r="Q41">
+        <v>207</v>
+      </c>
+      <c r="R41">
+        <v>-5.0303167585519697</v>
+      </c>
+      <c r="S41">
+        <v>320</v>
+      </c>
+      <c r="T41">
+        <v>11.7173989807712</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>159</v>
+      </c>
+      <c r="D42">
+        <v>-1.4772956938964401</v>
+      </c>
+      <c r="E42">
+        <v>199</v>
+      </c>
+      <c r="F42">
+        <v>-6.0362972854982404</v>
+      </c>
+      <c r="G42">
+        <v>308</v>
+      </c>
+      <c r="H42">
+        <v>4.23313378463852</v>
+      </c>
+      <c r="I42">
+        <v>151</v>
+      </c>
+      <c r="J42">
+        <v>-1.7424202316587201</v>
+      </c>
+      <c r="K42">
+        <v>191</v>
+      </c>
+      <c r="L42">
+        <v>-4.7236018198002903</v>
+      </c>
+      <c r="M42">
+        <v>312</v>
+      </c>
+      <c r="N42">
+        <v>3.9148931736617198</v>
+      </c>
+      <c r="O42">
+        <v>151</v>
+      </c>
+      <c r="P42">
+        <v>-0.94793432272636102</v>
+      </c>
+      <c r="Q42">
+        <v>187</v>
+      </c>
+      <c r="R42">
+        <v>-6.8227967394251996</v>
+      </c>
+      <c r="S42">
+        <v>316</v>
+      </c>
+      <c r="T42">
+        <v>2.8171994096900002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>171</v>
+      </c>
+      <c r="D43">
+        <v>-3.1030726668969599</v>
+      </c>
+      <c r="E43">
+        <v>195</v>
+      </c>
+      <c r="F43">
+        <v>-5.9435854529643297</v>
+      </c>
+      <c r="G43">
+        <v>316</v>
+      </c>
+      <c r="H43">
+        <v>0.30933196344309</v>
+      </c>
+      <c r="I43">
+        <v>151</v>
+      </c>
+      <c r="J43">
+        <v>-1.6697585678020399</v>
+      </c>
+      <c r="K43">
+        <v>183</v>
+      </c>
+      <c r="L43">
+        <v>-5.8420266479173897</v>
+      </c>
+      <c r="M43">
+        <v>320</v>
+      </c>
+      <c r="N43">
+        <v>-0.281607733284433</v>
+      </c>
+      <c r="O43">
+        <v>175</v>
+      </c>
+      <c r="P43">
+        <v>-2.6888083067400301</v>
+      </c>
+      <c r="Q43">
+        <v>195</v>
+      </c>
+      <c r="R43">
+        <v>-5.9587423739440197</v>
+      </c>
+      <c r="S43">
+        <v>320</v>
+      </c>
+      <c r="T43">
+        <v>0.36816452223182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>167</v>
+      </c>
+      <c r="D44">
+        <v>-5.0478602726058597</v>
+      </c>
+      <c r="E44">
+        <v>207</v>
+      </c>
+      <c r="F44">
+        <v>-10.2809893968599</v>
+      </c>
+      <c r="G44">
+        <v>308</v>
+      </c>
+      <c r="H44">
+        <v>11.953905021120899</v>
+      </c>
+      <c r="I44">
+        <v>159</v>
+      </c>
+      <c r="J44">
+        <v>-5.9836469475595999</v>
+      </c>
+      <c r="K44">
+        <v>203</v>
+      </c>
+      <c r="L44">
+        <v>-12.9396944925521</v>
+      </c>
+      <c r="M44">
+        <v>316</v>
+      </c>
+      <c r="N44">
+        <v>11.835540756159199</v>
+      </c>
+      <c r="O44">
+        <v>151</v>
+      </c>
+      <c r="P44">
+        <v>-5.34790996186788</v>
+      </c>
+      <c r="Q44">
+        <v>199</v>
+      </c>
+      <c r="R44">
+        <v>-13.379478256633501</v>
+      </c>
+      <c r="S44">
+        <v>312</v>
+      </c>
+      <c r="T44">
+        <v>14.6652412464049</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>167</v>
+      </c>
+      <c r="D45">
+        <v>-1.6890546629279199</v>
+      </c>
+      <c r="E45">
+        <v>191</v>
+      </c>
+      <c r="F45">
+        <v>-6.3010775377732999</v>
+      </c>
+      <c r="G45">
+        <v>292</v>
+      </c>
+      <c r="H45">
+        <v>1.99878998894177</v>
+      </c>
+      <c r="I45">
+        <v>151</v>
+      </c>
+      <c r="J45">
+        <v>-3.71308392571295</v>
+      </c>
+      <c r="K45">
+        <v>183</v>
+      </c>
+      <c r="L45">
+        <v>-7.9280960932096498</v>
+      </c>
+      <c r="M45">
+        <v>320</v>
+      </c>
+      <c r="N45">
+        <v>-0.333241942003071</v>
+      </c>
+      <c r="O45">
+        <v>151</v>
+      </c>
+      <c r="P45">
+        <v>-2.4151832554029302</v>
+      </c>
+      <c r="Q45">
+        <v>195</v>
+      </c>
+      <c r="R45">
+        <v>-7.5996825417439897</v>
+      </c>
+      <c r="S45" t="s">
+        <v>10</v>
+      </c>
+      <c r="T45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>163</v>
+      </c>
+      <c r="D46">
+        <v>-2.2565248096588002</v>
+      </c>
+      <c r="E46">
+        <v>203</v>
+      </c>
+      <c r="F46">
+        <v>-3.0019624252739798</v>
+      </c>
+      <c r="G46">
+        <v>320</v>
+      </c>
+      <c r="H46">
+        <v>2.0822374722066801</v>
+      </c>
+      <c r="I46">
+        <v>175</v>
+      </c>
+      <c r="J46">
+        <v>-2.07130564071484</v>
+      </c>
+      <c r="K46">
+        <v>195</v>
+      </c>
+      <c r="L46">
+        <v>-2.9031449397667299</v>
+      </c>
+      <c r="M46">
+        <v>312</v>
+      </c>
+      <c r="N46">
+        <v>3.542352566855</v>
+      </c>
+      <c r="O46">
+        <v>167</v>
+      </c>
+      <c r="P46">
+        <v>-2.1199422751231101</v>
+      </c>
+      <c r="Q46">
+        <v>183</v>
+      </c>
+      <c r="R46">
+        <v>-2.6736172819811599</v>
+      </c>
+      <c r="S46">
+        <v>320</v>
+      </c>
+      <c r="T46">
+        <v>5.1766396739889302</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>163</v>
+      </c>
+      <c r="D47">
+        <v>-2.4084695291158802</v>
+      </c>
+      <c r="E47">
+        <v>183</v>
+      </c>
+      <c r="F47">
+        <v>-2.7761194169216501</v>
+      </c>
+      <c r="G47">
+        <v>320</v>
+      </c>
+      <c r="H47">
+        <v>0.46232254771793002</v>
+      </c>
+      <c r="I47">
+        <v>179</v>
+      </c>
+      <c r="J47">
+        <v>-1.46159803082452</v>
+      </c>
+      <c r="K47">
+        <v>179</v>
+      </c>
+      <c r="L47">
+        <v>-2.6150488782682899</v>
+      </c>
+      <c r="M47">
+        <v>300</v>
+      </c>
+      <c r="N47">
+        <v>1.1436957565525601</v>
+      </c>
+      <c r="O47">
+        <v>159</v>
+      </c>
+      <c r="P47">
+        <v>-2.7971479826316599</v>
+      </c>
+      <c r="Q47">
+        <v>195</v>
+      </c>
+      <c r="R47">
+        <v>-2.4905372268785402</v>
+      </c>
+      <c r="S47">
+        <v>320</v>
+      </c>
+      <c r="T47">
+        <v>0.882391673014433</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>151</v>
+      </c>
+      <c r="D48">
+        <v>-3.6345723210327501</v>
+      </c>
+      <c r="E48">
+        <v>191</v>
+      </c>
+      <c r="F48">
+        <v>-8.6058811785872802</v>
+      </c>
+      <c r="G48">
+        <v>320</v>
+      </c>
+      <c r="H48">
+        <v>-0.105643828077323</v>
+      </c>
+      <c r="I48">
+        <v>155</v>
+      </c>
+      <c r="J48">
+        <v>-5.2173900704562497</v>
+      </c>
+      <c r="K48">
+        <v>183</v>
+      </c>
+      <c r="L48">
+        <v>-7.6839309339969697</v>
+      </c>
+      <c r="M48">
+        <v>320</v>
+      </c>
+      <c r="N48">
+        <v>1.2447215039947399</v>
+      </c>
+      <c r="O48">
+        <v>151</v>
+      </c>
+      <c r="P48">
+        <v>-4.8320686287932597</v>
+      </c>
+      <c r="Q48">
+        <v>179</v>
+      </c>
+      <c r="R48">
+        <v>-7.6609999457284497</v>
+      </c>
+      <c r="S48">
+        <v>320</v>
+      </c>
+      <c r="T48">
+        <v>4.75508309732695</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>155</v>
+      </c>
+      <c r="D49">
+        <v>-4.34339664984675</v>
+      </c>
+      <c r="E49">
+        <v>183</v>
+      </c>
+      <c r="F49">
+        <v>-7.2492168459963002</v>
+      </c>
+      <c r="G49">
+        <v>292</v>
+      </c>
+      <c r="H49">
+        <v>7.7662248588095899</v>
+      </c>
+      <c r="I49">
+        <v>163</v>
+      </c>
+      <c r="J49">
+        <v>-6.3210704707485297</v>
+      </c>
+      <c r="K49">
+        <v>183</v>
+      </c>
+      <c r="L49">
+        <v>-9.8949607566008204</v>
+      </c>
+      <c r="M49">
+        <v>292</v>
+      </c>
+      <c r="N49">
+        <v>11.737640260461699</v>
+      </c>
+      <c r="O49">
+        <v>151</v>
+      </c>
+      <c r="P49">
+        <v>-3.2448852318119799</v>
+      </c>
+      <c r="Q49">
+        <v>179</v>
+      </c>
+      <c r="R49">
+        <v>-8.92440127786573</v>
+      </c>
+      <c r="S49">
+        <v>312</v>
+      </c>
+      <c r="T49">
+        <v>9.40050374936264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <v>179</v>
+      </c>
+      <c r="D50">
+        <v>-5.5772928339664096</v>
+      </c>
+      <c r="E50">
+        <v>207</v>
+      </c>
+      <c r="F50">
+        <v>-6.5338724131808998</v>
+      </c>
+      <c r="G50">
+        <v>316</v>
+      </c>
+      <c r="H50">
+        <v>3.7074453360029298</v>
+      </c>
+      <c r="I50">
+        <v>151</v>
+      </c>
+      <c r="J50">
+        <v>-5.3328977330875897</v>
+      </c>
+      <c r="K50">
+        <v>199</v>
+      </c>
+      <c r="L50">
+        <v>-12.8813330211593</v>
+      </c>
+      <c r="M50">
+        <v>320</v>
+      </c>
+      <c r="N50">
+        <v>5.1381570423683103</v>
+      </c>
+      <c r="O50">
+        <v>151</v>
+      </c>
+      <c r="P50">
+        <v>-6.32243399518714</v>
+      </c>
+      <c r="Q50">
+        <v>199</v>
+      </c>
+      <c r="R50">
+        <v>-16.423459160876099</v>
+      </c>
+      <c r="S50">
+        <v>320</v>
+      </c>
+      <c r="T50">
+        <v>4.0857133555909897</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>151</v>
+      </c>
+      <c r="D51">
+        <v>-10.929068513641401</v>
+      </c>
+      <c r="E51">
+        <v>179</v>
+      </c>
+      <c r="F51">
+        <v>-18.892373321687401</v>
+      </c>
+      <c r="G51">
+        <v>304</v>
+      </c>
+      <c r="H51">
+        <v>2.7795167753369801</v>
+      </c>
+      <c r="I51">
+        <v>159</v>
+      </c>
+      <c r="J51">
+        <v>-12.5358707737147</v>
+      </c>
+      <c r="K51">
+        <v>191</v>
+      </c>
+      <c r="L51">
+        <v>-23.914701764949701</v>
+      </c>
+      <c r="M51">
+        <v>320</v>
+      </c>
+      <c r="N51">
+        <v>1.36940953421094</v>
+      </c>
+      <c r="O51">
+        <v>151</v>
+      </c>
+      <c r="P51">
+        <v>-12.494506959722001</v>
+      </c>
+      <c r="Q51">
+        <v>183</v>
+      </c>
+      <c r="R51">
+        <v>-21.550022535908099</v>
+      </c>
+      <c r="S51">
+        <v>304</v>
+      </c>
+      <c r="T51">
+        <v>1.2068530164726401</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>151</v>
+      </c>
+      <c r="D52">
+        <v>-1.62181342452697</v>
+      </c>
+      <c r="E52">
+        <v>179</v>
+      </c>
+      <c r="F52">
+        <v>-1.56861434392889</v>
+      </c>
+      <c r="G52">
+        <v>292</v>
+      </c>
+      <c r="H52">
+        <v>4.5123122922767296</v>
+      </c>
+      <c r="I52">
+        <v>151</v>
+      </c>
+      <c r="J52">
+        <v>-4.0949826845446902</v>
+      </c>
+      <c r="K52">
+        <v>179</v>
+      </c>
+      <c r="L52">
+        <v>-0.722907213035896</v>
+      </c>
+      <c r="M52">
+        <v>292</v>
+      </c>
+      <c r="N52">
+        <v>8.8262564007773694</v>
+      </c>
+      <c r="O52">
+        <v>151</v>
+      </c>
+      <c r="P52">
+        <v>-4.2244617624566203</v>
+      </c>
+      <c r="Q52">
+        <v>179</v>
+      </c>
+      <c r="R52">
+        <v>-4.2251893435891299</v>
+      </c>
+      <c r="S52">
+        <v>304</v>
+      </c>
+      <c r="T52">
+        <v>10.0143099495615</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="C53">
+        <v>151</v>
+      </c>
+      <c r="D53">
+        <v>-3.2969559681436</v>
+      </c>
+      <c r="E53">
+        <v>195</v>
+      </c>
+      <c r="F53">
+        <v>-6.0350326146978901</v>
+      </c>
+      <c r="G53">
+        <v>296</v>
+      </c>
+      <c r="H53">
+        <v>4.7977226909370696</v>
+      </c>
+      <c r="I53">
+        <v>151</v>
+      </c>
+      <c r="J53">
+        <v>-3.2735105235368902</v>
+      </c>
+      <c r="K53">
+        <v>183</v>
+      </c>
+      <c r="L53">
+        <v>-5.6675938991835801</v>
+      </c>
+      <c r="M53">
+        <v>320</v>
+      </c>
+      <c r="N53">
+        <v>3.48382852775871</v>
+      </c>
+      <c r="O53">
+        <v>151</v>
+      </c>
+      <c r="P53">
+        <v>-2.71857004330136</v>
+      </c>
+      <c r="Q53">
+        <v>183</v>
+      </c>
+      <c r="R53">
+        <v>-7.2258328342588696</v>
+      </c>
+      <c r="S53">
+        <v>320</v>
+      </c>
+      <c r="T53">
+        <v>3.4324119027081998</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:T53" xr:uid="{401EBBD2-3936-4E70-BEF6-9C13203BA8BC}">
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="8" showButton="0"/>
+    <filterColumn colId="9" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
+    <filterColumn colId="11" showButton="0"/>
+    <filterColumn colId="12" showButton="0"/>
+    <filterColumn colId="14" showButton="0"/>
+    <filterColumn colId="15" showButton="0"/>
+    <filterColumn colId="16" showButton="0"/>
+    <filterColumn colId="17" showButton="0"/>
+    <filterColumn colId="18" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="7">
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="W1:Y1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Stats/Statistics.xlsx
+++ b/Stats/Statistics.xlsx
@@ -8,21 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\PycharmProjects\Pain\Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B107A38-87DB-4F06-B879-1D47236DF0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FB56EB-7EEC-4409-9B06-BDCBF3EF9151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{30898942-D181-4398-8C06-282691AD810A}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{30898942-D181-4398-8C06-282691AD810A}"/>
   </bookViews>
   <sheets>
     <sheet name="Gender &amp; Pain Threshold" sheetId="1" r:id="rId1"/>
     <sheet name="Gender &amp; Pain Rating" sheetId="2" r:id="rId2"/>
-    <sheet name="ERP Grouped" sheetId="4" r:id="rId3"/>
-    <sheet name="ERP by Subject" sheetId="5" r:id="rId4"/>
+    <sheet name="ERP Components" sheetId="5" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'ERP by Subject'!$A$1:$T$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ERP Components'!$A$1:$T$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Gender &amp; Pain Rating'!$A$1:$D$3061</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Gender &amp; Pain Threshold'!$C$1:$D$52</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'Gender &amp; Pain Threshold'!$F$1</definedName>
@@ -51,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6335" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6349" uniqueCount="58">
   <si>
     <t>Subject</t>
   </si>
@@ -296,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -306,42 +302,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -388,14 +362,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Gender Differences in PREP</a:t>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Gender Differences in PREP Latencies</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Latencies</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -440,7 +414,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ERP Grouped'!$A$3</c:f>
+              <c:f>'ERP Components'!$V$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -459,9 +433,27 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'ERP Grouped'!$B$1:$G$2</c:f>
+              <c:f>'ERP Components'!$W$2:$AB$3</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -497,34 +489,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ERP Grouped'!$B$3:$G$3</c:f>
+              <c:f>'ERP Components'!$W$4:$AB$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>160</c:v>
+                  <c:v>162.82978723404256</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156</c:v>
+                  <c:v>162.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>152</c:v>
+                  <c:v>161.88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>152</c:v>
+                  <c:v>162.82978723404256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>164</c:v>
+                  <c:v>162.52000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>152</c:v>
+                  <c:v>161.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8366-4048-9A59-43451F99D41B}"/>
+              <c16:uniqueId val="{00000000-621C-4331-BBBC-A3475B1EAB89}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -533,7 +525,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ERP Grouped'!$A$4</c:f>
+              <c:f>'ERP Components'!$V$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -552,9 +544,27 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'ERP Grouped'!$B$1:$G$2</c:f>
+              <c:f>'ERP Components'!$W$2:$AB$3</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -590,34 +600,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ERP Grouped'!$B$4:$G$4</c:f>
+              <c:f>'ERP Components'!$W$5:$AB$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>196</c:v>
+                  <c:v>193.16666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>196</c:v>
+                  <c:v>191.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>196</c:v>
+                  <c:v>190.91836734693877</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>184</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>184</c:v>
+                  <c:v>191.24489795918367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>180</c:v>
+                  <c:v>190.83673469387756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8366-4048-9A59-43451F99D41B}"/>
+              <c16:uniqueId val="{00000001-621C-4331-BBBC-A3475B1EAB89}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -626,7 +636,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ERP Grouped'!$A$5</c:f>
+              <c:f>'ERP Components'!$V$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -645,9 +655,27 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'ERP Grouped'!$B$1:$G$2</c:f>
+              <c:f>'ERP Components'!$W$2:$AB$3</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -683,34 +711,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ERP Grouped'!$B$5:$G$5</c:f>
+              <c:f>'ERP Components'!$W$6:$AB$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>316</c:v>
+                  <c:v>306.48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>320</c:v>
+                  <c:v>308.25531914893617</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>320</c:v>
+                  <c:v>309.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>292</c:v>
+                  <c:v>306.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>292</c:v>
+                  <c:v>307.65957446808511</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300</c:v>
+                  <c:v>309.08333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8366-4048-9A59-43451F99D41B}"/>
+              <c16:uniqueId val="{00000002-621C-4331-BBBC-A3475B1EAB89}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -724,11 +752,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1435550575"/>
-        <c:axId val="1435550991"/>
+        <c:axId val="666593919"/>
+        <c:axId val="666602655"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1435550575"/>
+        <c:axId val="666593919"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,7 +799,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1435550991"/>
+        <c:crossAx val="666602655"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -779,7 +807,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1435550991"/>
+        <c:axId val="666602655"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,7 +858,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1435550575"/>
+        <c:crossAx val="666593919"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -944,9 +972,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t>Gender Differences in PREP Amplitudes</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -991,7 +1024,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ERP Grouped'!$A$12</c:f>
+              <c:f>'ERP Components'!$V$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1010,9 +1043,27 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'ERP Grouped'!$B$10:$G$11</c:f>
+              <c:f>'ERP Components'!$W$11:$AB$12</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1048,34 +1099,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ERP Grouped'!$B$12:$G$12</c:f>
+              <c:f>'ERP Components'!$W$13:$AB$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.8540000000000001</c:v>
+                  <c:v>3.2930496839562009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0599999999999996</c:v>
+                  <c:v>3.5469417233629263</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9380000000000002</c:v>
+                  <c:v>3.3347560546044916</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.331</c:v>
+                  <c:v>3.2075163709420136</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.363</c:v>
+                  <c:v>3.5081309982243818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0139999999999998</c:v>
+                  <c:v>3.2695513116452446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5E85-47BE-AE47-E61E0B46978F}"/>
+              <c16:uniqueId val="{00000000-87EC-422E-B03A-C9527AB462D3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1084,7 +1135,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ERP Grouped'!$A$13</c:f>
+              <c:f>'ERP Components'!$V$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1103,9 +1154,27 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'ERP Grouped'!$B$10:$G$11</c:f>
+              <c:f>'ERP Components'!$W$11:$AB$12</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1141,34 +1210,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ERP Grouped'!$B$13:$G$13</c:f>
+              <c:f>'ERP Components'!$W$14:$AB$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.76</c:v>
+                  <c:v>5.1427575286769924</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4450000000000003</c:v>
+                  <c:v>5.9068372801446598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9020000000000001</c:v>
+                  <c:v>6.2242932365196042</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7559999999999998</c:v>
+                  <c:v>5.0223362594355825</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6989999999999998</c:v>
+                  <c:v>5.8757264681742249</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8029999999999999</c:v>
+                  <c:v>6.1901875622429543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5E85-47BE-AE47-E61E0B46978F}"/>
+              <c16:uniqueId val="{00000001-87EC-422E-B03A-C9527AB462D3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1177,7 +1246,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ERP Grouped'!$A$14</c:f>
+              <c:f>'ERP Components'!$V$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1196,9 +1265,27 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'ERP Grouped'!$B$10:$G$11</c:f>
+              <c:f>'ERP Components'!$W$11:$AB$12</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1234,34 +1321,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ERP Grouped'!$B$14:$G$14</c:f>
+              <c:f>'ERP Components'!$W$15:$AB$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.8049999999999997</c:v>
+                  <c:v>4.0215520904838993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8819999999999997</c:v>
+                  <c:v>5.0644995937052171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.742</c:v>
+                  <c:v>5.9437972947243018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.073</c:v>
+                  <c:v>3.911610406559431</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3319999999999999</c:v>
+                  <c:v>5.0510473583514113</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.56</c:v>
+                  <c:v>5.9394200998251057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5E85-47BE-AE47-E61E0B46978F}"/>
+              <c16:uniqueId val="{00000002-87EC-422E-B03A-C9527AB462D3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1275,11 +1362,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1526114703"/>
-        <c:axId val="1526128015"/>
+        <c:axId val="663947807"/>
+        <c:axId val="663948223"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1526114703"/>
+        <c:axId val="663947807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1322,7 +1409,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1526128015"/>
+        <c:crossAx val="663948223"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1330,7 +1417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1526128015"/>
+        <c:axId val="663948223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1381,7 +1468,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1526114703"/>
+        <c:crossAx val="663947807"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3244,8 +3331,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7686675" y="2835592"/>
-              <a:ext cx="5265420" cy="4125278"/>
+              <a:off x="7684770" y="2810827"/>
+              <a:ext cx="5248275" cy="4090988"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3282,29 +3369,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>478155</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{036FA315-D509-455B-BCCE-FD1D0EC8F004}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90B596D9-49C7-E0A0-DD36-044AC5D083A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3320,29 +3405,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>521970</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D2DAEA-1C88-430C-A3FA-0600739972A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECCA102E-9573-76B7-176B-19130D2424FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3357,216 +3440,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Grouped"/>
-      <sheetName val="Seperated"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Male</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>Female</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>Low</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>Med</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>High</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>Low</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>Med</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>High</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>N1 Lat</v>
-          </cell>
-          <cell r="B3">
-            <v>160</v>
-          </cell>
-          <cell r="C3">
-            <v>156</v>
-          </cell>
-          <cell r="D3">
-            <v>152</v>
-          </cell>
-          <cell r="E3">
-            <v>152</v>
-          </cell>
-          <cell r="F3">
-            <v>164</v>
-          </cell>
-          <cell r="G3">
-            <v>152</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>N2 Lat</v>
-          </cell>
-          <cell r="B4">
-            <v>196</v>
-          </cell>
-          <cell r="C4">
-            <v>196</v>
-          </cell>
-          <cell r="D4">
-            <v>196</v>
-          </cell>
-          <cell r="E4">
-            <v>184</v>
-          </cell>
-          <cell r="F4">
-            <v>184</v>
-          </cell>
-          <cell r="G4">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>P2 Lat</v>
-          </cell>
-          <cell r="B5">
-            <v>316</v>
-          </cell>
-          <cell r="C5">
-            <v>320</v>
-          </cell>
-          <cell r="D5">
-            <v>320</v>
-          </cell>
-          <cell r="E5">
-            <v>292</v>
-          </cell>
-          <cell r="F5">
-            <v>292</v>
-          </cell>
-          <cell r="G5">
-            <v>300</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>Male</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>Female</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>Low</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>Med</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>High</v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>Low</v>
-          </cell>
-          <cell r="F11" t="str">
-            <v>Med</v>
-          </cell>
-          <cell r="G11" t="str">
-            <v>High</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>N1 Amp</v>
-          </cell>
-          <cell r="B12">
-            <v>3.8540000000000001</v>
-          </cell>
-          <cell r="C12">
-            <v>4.0599999999999996</v>
-          </cell>
-          <cell r="D12">
-            <v>3.9380000000000002</v>
-          </cell>
-          <cell r="E12">
-            <v>2.331</v>
-          </cell>
-          <cell r="F12">
-            <v>3.363</v>
-          </cell>
-          <cell r="G12">
-            <v>3.0139999999999998</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>N2 Amp</v>
-          </cell>
-          <cell r="B13">
-            <v>5.76</v>
-          </cell>
-          <cell r="C13">
-            <v>6.4450000000000003</v>
-          </cell>
-          <cell r="D13">
-            <v>6.9020000000000001</v>
-          </cell>
-          <cell r="E13">
-            <v>3.7559999999999998</v>
-          </cell>
-          <cell r="F13">
-            <v>4.6989999999999998</v>
-          </cell>
-          <cell r="G13">
-            <v>4.8029999999999999</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>P2 Amp</v>
-          </cell>
-          <cell r="B14">
-            <v>4.8049999999999997</v>
-          </cell>
-          <cell r="C14">
-            <v>4.8819999999999997</v>
-          </cell>
-          <cell r="D14">
-            <v>5.742</v>
-          </cell>
-          <cell r="E14">
-            <v>3.073</v>
-          </cell>
-          <cell r="F14">
-            <v>4.3319999999999999</v>
-          </cell>
-          <cell r="G14">
-            <v>5.56</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -84482,407 +84355,149 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACAACE5-BB1B-4726-AC1A-D5CAE172C067}">
-  <dimension ref="A1:G14"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3">
-        <v>160</v>
-      </c>
-      <c r="C3">
-        <v>156</v>
-      </c>
-      <c r="D3">
-        <v>152</v>
-      </c>
-      <c r="E3">
-        <v>152</v>
-      </c>
-      <c r="F3">
-        <v>164</v>
-      </c>
-      <c r="G3">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4">
-        <v>196</v>
-      </c>
-      <c r="C4">
-        <v>196</v>
-      </c>
-      <c r="D4">
-        <v>196</v>
-      </c>
-      <c r="E4">
-        <v>184</v>
-      </c>
-      <c r="F4">
-        <v>184</v>
-      </c>
-      <c r="G4">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5">
-        <v>316</v>
-      </c>
-      <c r="C5">
-        <v>320</v>
-      </c>
-      <c r="D5">
-        <v>320</v>
-      </c>
-      <c r="E5">
-        <v>292</v>
-      </c>
-      <c r="F5">
-        <v>292</v>
-      </c>
-      <c r="G5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6">
-        <v>-3.8540000000000001</v>
-      </c>
-      <c r="C6">
-        <v>-4.0599999999999996</v>
-      </c>
-      <c r="D6">
-        <v>-3.9380000000000002</v>
-      </c>
-      <c r="E6">
-        <v>-2.331</v>
-      </c>
-      <c r="F6">
-        <v>-3.363</v>
-      </c>
-      <c r="G6">
-        <v>-3.0139999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7">
-        <v>-5.76</v>
-      </c>
-      <c r="C7">
-        <v>-6.4450000000000003</v>
-      </c>
-      <c r="D7">
-        <v>-6.9020000000000001</v>
-      </c>
-      <c r="E7">
-        <v>-3.7559999999999998</v>
-      </c>
-      <c r="F7">
-        <v>-4.6989999999999998</v>
-      </c>
-      <c r="G7">
-        <v>-4.8029999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8">
-        <v>4.8049999999999997</v>
-      </c>
-      <c r="C8">
-        <v>4.8819999999999997</v>
-      </c>
-      <c r="D8">
-        <v>5.742</v>
-      </c>
-      <c r="E8">
-        <v>3.073</v>
-      </c>
-      <c r="F8">
-        <v>4.3319999999999999</v>
-      </c>
-      <c r="G8">
-        <v>5.56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12">
-        <v>3.8540000000000001</v>
-      </c>
-      <c r="C12">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="D12">
-        <v>3.9380000000000002</v>
-      </c>
-      <c r="E12">
-        <v>2.331</v>
-      </c>
-      <c r="F12">
-        <v>3.363</v>
-      </c>
-      <c r="G12">
-        <v>3.0139999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13">
-        <v>5.76</v>
-      </c>
-      <c r="C13">
-        <v>6.4450000000000003</v>
-      </c>
-      <c r="D13">
-        <v>6.9020000000000001</v>
-      </c>
-      <c r="E13">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="F13">
-        <v>4.6989999999999998</v>
-      </c>
-      <c r="G13">
-        <v>4.8029999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14">
-        <v>4.8049999999999997</v>
-      </c>
-      <c r="C14">
-        <v>4.8819999999999997</v>
-      </c>
-      <c r="D14">
-        <v>5.742</v>
-      </c>
-      <c r="E14">
-        <v>3.073</v>
-      </c>
-      <c r="F14">
-        <v>4.3319999999999999</v>
-      </c>
-      <c r="G14">
-        <v>5.56</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401EBBD2-3936-4E70-BEF6-9C13203BA8BC}">
   <dimension ref="A1:AB53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="I1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="J1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="O1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
+      <c r="P1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="8" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="W2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -84945,6 +84560,24 @@
       <c r="T3">
         <v>3.2223065475467898</v>
       </c>
+      <c r="W3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -85007,6 +84640,33 @@
       <c r="T4">
         <v>4.7981229402688399</v>
       </c>
+      <c r="V4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" s="6">
+        <f>AVERAGE(C4:C53)</f>
+        <v>162.82978723404256</v>
+      </c>
+      <c r="X4" s="6">
+        <f>AVERAGE(I4:I53)</f>
+        <v>162.19999999999999</v>
+      </c>
+      <c r="Y4" s="6">
+        <f>AVERAGE(O4:O53)</f>
+        <v>161.88</v>
+      </c>
+      <c r="Z4" s="6">
+        <f>AVERAGE(C3:C52)</f>
+        <v>162.82978723404256</v>
+      </c>
+      <c r="AA4" s="6">
+        <f>AVERAGE(I3:I52)</f>
+        <v>162.52000000000001</v>
+      </c>
+      <c r="AB4" s="6">
+        <f>AVERAGE(O3:O52)</f>
+        <v>161.88</v>
+      </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -85069,6 +84729,33 @@
       <c r="T5">
         <v>1.0943922383659499</v>
       </c>
+      <c r="V5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="W5" s="6">
+        <f>AVERAGE(E4:E53)</f>
+        <v>193.16666666666666</v>
+      </c>
+      <c r="X5" s="6">
+        <f>AVERAGE(K3:K53)</f>
+        <v>191.08</v>
+      </c>
+      <c r="Y5" s="6">
+        <f>AVERAGE(Q4:Q53)</f>
+        <v>190.91836734693877</v>
+      </c>
+      <c r="Z5" s="6">
+        <f>AVERAGE(E3:E52)</f>
+        <v>193</v>
+      </c>
+      <c r="AA5" s="6">
+        <f>AVERAGE(K3:K52)</f>
+        <v>191.24489795918367</v>
+      </c>
+      <c r="AB5" s="6">
+        <f>AVERAGE(Q3:Q52)</f>
+        <v>190.83673469387756</v>
+      </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -85131,6 +84818,33 @@
       <c r="T6">
         <v>10.8856887637347</v>
       </c>
+      <c r="V6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" s="6">
+        <f>AVERAGE(G4:G53)</f>
+        <v>306.48</v>
+      </c>
+      <c r="X6" s="6">
+        <f>AVERAGE(M4:M53)</f>
+        <v>308.25531914893617</v>
+      </c>
+      <c r="Y6" s="6">
+        <f>AVERAGE(S4:S53)</f>
+        <v>309.25</v>
+      </c>
+      <c r="Z6" s="6">
+        <f>AVERAGE(G3:G52)</f>
+        <v>306.39999999999998</v>
+      </c>
+      <c r="AA6" s="6">
+        <f>AVERAGE(M3:M52)</f>
+        <v>307.65957446808511</v>
+      </c>
+      <c r="AB6" s="6">
+        <f>AVERAGE(S3:S52)</f>
+        <v>309.08333333333331</v>
+      </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -85193,6 +84907,33 @@
       <c r="T7">
         <v>0.115858851408456</v>
       </c>
+      <c r="V7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="6">
+        <f>AVERAGE(D4:D53)</f>
+        <v>-3.2930496839562009</v>
+      </c>
+      <c r="X7" s="6">
+        <f>AVERAGE(J4:J53)</f>
+        <v>-3.5469417233629263</v>
+      </c>
+      <c r="Y7" s="6">
+        <f>AVERAGE(P4:P53)</f>
+        <v>-3.3347560546044916</v>
+      </c>
+      <c r="Z7" s="6">
+        <f>AVERAGE(D3:D52)</f>
+        <v>-3.2075163709420136</v>
+      </c>
+      <c r="AA7" s="6">
+        <f>AVERAGE(J3:J52)</f>
+        <v>-3.5081309982243818</v>
+      </c>
+      <c r="AB7" s="6">
+        <f>AVERAGE(P3:P52)</f>
+        <v>-3.2695513116452446</v>
+      </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -85255,6 +84996,33 @@
       <c r="T8">
         <v>6.9938957784575102</v>
       </c>
+      <c r="V8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="6">
+        <f>AVERAGE(F4:F53)</f>
+        <v>-5.1427575286769924</v>
+      </c>
+      <c r="X8" s="6">
+        <f>AVERAGE(L4:L53)</f>
+        <v>-5.9068372801446598</v>
+      </c>
+      <c r="Y8" s="6">
+        <f>AVERAGE(R4:R53)</f>
+        <v>-6.2242932365196042</v>
+      </c>
+      <c r="Z8" s="6">
+        <f>AVERAGE(F3:F52)</f>
+        <v>-5.0223362594355825</v>
+      </c>
+      <c r="AA8" s="6">
+        <f>AVERAGE(L3:L52)</f>
+        <v>-5.8757264681742249</v>
+      </c>
+      <c r="AB8" s="6">
+        <f>AVERAGE(R3:R52)</f>
+        <v>-6.1901875622429543</v>
+      </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -85317,6 +85085,33 @@
       <c r="T9">
         <v>3.47163934366549</v>
       </c>
+      <c r="V9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W9" s="6">
+        <f>AVERAGE(H4:H53)</f>
+        <v>4.0215520904838993</v>
+      </c>
+      <c r="X9" s="6">
+        <f>AVERAGE(N4:N53)</f>
+        <v>5.0644995937052171</v>
+      </c>
+      <c r="Y9" s="6">
+        <f>AVERAGE(T4:T53)</f>
+        <v>5.9437972947243018</v>
+      </c>
+      <c r="Z9" s="6">
+        <f>AVERAGE(H3:H52)</f>
+        <v>3.911610406559431</v>
+      </c>
+      <c r="AA9" s="6">
+        <f>AVERAGE(N3:N52)</f>
+        <v>5.0510473583514113</v>
+      </c>
+      <c r="AB9" s="6">
+        <f>AVERAGE(T3:T52)</f>
+        <v>5.9394200998251057</v>
+      </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -85441,6 +85236,16 @@
       <c r="T11">
         <v>9.7466077591197102</v>
       </c>
+      <c r="W11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -85503,6 +85308,24 @@
       <c r="T12">
         <v>3.6441446255961698</v>
       </c>
+      <c r="W12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -85565,6 +85388,33 @@
       <c r="T13">
         <v>6.7129603161284699</v>
       </c>
+      <c r="V13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="W13">
+        <f>ABS(W7)</f>
+        <v>3.2930496839562009</v>
+      </c>
+      <c r="X13">
+        <f t="shared" ref="X13:AB13" si="0">ABS(X7)</f>
+        <v>3.5469417233629263</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="0"/>
+        <v>3.3347560546044916</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="0"/>
+        <v>3.2075163709420136</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="0"/>
+        <v>3.5081309982243818</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="0"/>
+        <v>3.2695513116452446</v>
+      </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -85627,6 +85477,33 @@
       <c r="T14">
         <v>5.8896439321202196</v>
       </c>
+      <c r="V14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ref="W14:AB14" si="1">ABS(W8)</f>
+        <v>5.1427575286769924</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="1"/>
+        <v>5.9068372801446598</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="1"/>
+        <v>6.2242932365196042</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="1"/>
+        <v>5.0223362594355825</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="1"/>
+        <v>5.8757264681742249</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="1"/>
+        <v>6.1901875622429543</v>
+      </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -85688,6 +85565,33 @@
       </c>
       <c r="T15">
         <v>6.9407784065449603</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W15">
+        <f t="shared" ref="W15:AB15" si="2">ABS(W9)</f>
+        <v>4.0215520904838993</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="2"/>
+        <v>5.0644995937052171</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="2"/>
+        <v>5.9437972947243018</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="2"/>
+        <v>3.911610406559431</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="2"/>
+        <v>5.0510473583514113</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="2"/>
+        <v>5.9394200998251057</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
@@ -88064,15 +87968,16 @@
     <filterColumn colId="17" showButton="0"/>
     <filterColumn colId="18" showButton="0"/>
   </autoFilter>
-  <mergeCells count="7">
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="O1:T1"/>
+  <mergeCells count="6">
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z11:AB11"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="W2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>